--- a/assets/conceptdev/Guardbook.xlsx
+++ b/assets/conceptdev/Guardbook.xlsx
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -483,8 +483,9 @@
         <v>17</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -496,7 +497,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -508,7 +509,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -520,7 +521,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -532,7 +533,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -544,7 +545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +557,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -568,13 +569,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -586,7 +587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -598,7 +599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
@@ -610,7 +611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -622,7 +623,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -634,7 +635,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="27.75" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:9" ht="27.75" x14ac:dyDescent="0.65">
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
